--- a/utils/localisation_script/excel_to_json/kn/zlatest.xlsx
+++ b/utils/localisation_script/excel_to_json/kn/zlatest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreejithv/TW/projects/ekStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/kn/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nireshkumarr/Documents/ekstep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/kn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114373B8-B4FD-F34B-96DD-1C30F981DF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE424494-6642-394D-8109-FDDF7E955E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Kannada</t>
   </si>
@@ -64,30 +64,9 @@
     <t>Hindi</t>
   </si>
   <si>
-    <t>Marathi</t>
-  </si>
-  <si>
-    <t>Tamil</t>
-  </si>
-  <si>
     <t>Malayalam</t>
   </si>
   <si>
-    <t>Bengali</t>
-  </si>
-  <si>
-    <t>Odia</t>
-  </si>
-  <si>
-    <t>Assamese</t>
-  </si>
-  <si>
-    <t>Punjabi</t>
-  </si>
-  <si>
-    <t>Gujarati</t>
-  </si>
-  <si>
     <t>(*required)</t>
   </si>
   <si>
@@ -98,13 +77,160 @@
   </si>
   <si>
     <t>Help your language achieve it’s goal of 10000 images. We know you can do more!</t>
+  </si>
+  <si>
+    <t>Konkani Roman</t>
+  </si>
+  <si>
+    <t>ಕೊಂಕಣಿ ರೋಮನ್</t>
+  </si>
+  <si>
+    <t>Konkani DV</t>
+  </si>
+  <si>
+    <t>ಕೊಂಕಣಿ ಡಿ.ವಿ.</t>
+  </si>
+  <si>
+    <t>Manipuri BN</t>
+  </si>
+  <si>
+    <t>ಮಣಿಪುರಿ ಬಿ.ಎನ್</t>
+  </si>
+  <si>
+    <t>Manipuri MM</t>
+  </si>
+  <si>
+    <t>ಮಣಿಪುರಿ ಎಂ.ಎಂ.</t>
+  </si>
+  <si>
+    <t>Santali OL</t>
+  </si>
+  <si>
+    <t>ಸಂತಾಲಿ ಒ.ಎಲ್</t>
+  </si>
+  <si>
+    <t>Santali DV</t>
+  </si>
+  <si>
+    <t>ಸಂತಾಲಿ ಡಿ.ವಿ.</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>ಇಂಗ್ಲಿಷ್</t>
+  </si>
+  <si>
+    <t>ASSAMESE</t>
+  </si>
+  <si>
+    <t>ಅಸ್ಸಾಮೀಸ್</t>
+  </si>
+  <si>
+    <t>BENGALI</t>
+  </si>
+  <si>
+    <t>ಬೆಂಗಾಲಿ</t>
+  </si>
+  <si>
+    <t>BODO</t>
+  </si>
+  <si>
+    <t>ಬೋಡೋ</t>
+  </si>
+  <si>
+    <t>DOGRI</t>
+  </si>
+  <si>
+    <t>ಡೋಗರಿ</t>
+  </si>
+  <si>
+    <t>GUJARATI</t>
+  </si>
+  <si>
+    <t>ಗುಜರಾತಿ</t>
+  </si>
+  <si>
+    <t>ಹಿಂದಿ</t>
+  </si>
+  <si>
+    <t>KANNADA</t>
+  </si>
+  <si>
+    <t>ಕನ್ನಡ</t>
+  </si>
+  <si>
+    <t>KASHMIRI</t>
+  </si>
+  <si>
+    <t>ಕಾಶ್ಮೀರಿ</t>
+  </si>
+  <si>
+    <t>MAITHILI</t>
+  </si>
+  <si>
+    <t>ಮೈಥಿಲಿ</t>
+  </si>
+  <si>
+    <t>ಮಲಯಾಳಂ</t>
+  </si>
+  <si>
+    <t>MARATHI</t>
+  </si>
+  <si>
+    <t>ಮರಾಠಿ</t>
+  </si>
+  <si>
+    <t>ODIA</t>
+  </si>
+  <si>
+    <t>ಓಡಿಯಾ</t>
+  </si>
+  <si>
+    <t>NEPALI</t>
+  </si>
+  <si>
+    <t>ನೇಪಾಳಿ</t>
+  </si>
+  <si>
+    <t>PUNJABI</t>
+  </si>
+  <si>
+    <t>ಪಂಜಾಬಿ</t>
+  </si>
+  <si>
+    <t>SANSKRIT</t>
+  </si>
+  <si>
+    <t>ಸಂಸ್ಕೃತ</t>
+  </si>
+  <si>
+    <t>SINDHI</t>
+  </si>
+  <si>
+    <t>ಸಿಂಧಿ</t>
+  </si>
+  <si>
+    <t>TAMIL</t>
+  </si>
+  <si>
+    <t>ತಮಿಳು</t>
+  </si>
+  <si>
+    <t>ತೆಲುಗು</t>
+  </si>
+  <si>
+    <t>URDU</t>
+  </si>
+  <si>
+    <t>ಉರ್ದು</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -181,6 +307,12 @@
       <sz val="12"/>
       <color rgb="FFC35757"/>
       <name val="Lato"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -209,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -251,6 +383,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,10 +602,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:G26"/>
+  <dimension ref="A2:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B2" sqref="B2:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="18"/>
@@ -579,8 +712,8 @@
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="14" t="s">
-        <v>12</v>
+      <c r="B13" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -588,106 +721,263 @@
     </row>
     <row r="14" spans="1:7">
       <c r="B14" s="14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="D14" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="14" t="s">
-        <v>15</v>
+      <c r="B16" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="D16" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="14" t="s">
-        <v>0</v>
+      <c r="B17" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="D17" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="E17" s="11"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="14" t="s">
-        <v>16</v>
+      <c r="B18" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="D18" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="14" t="s">
-        <v>17</v>
+      <c r="B19" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="D19" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="14" t="s">
-        <v>18</v>
+      <c r="B20" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="D20" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="14" t="s">
-        <v>19</v>
+      <c r="B21" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="D21" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="14" t="s">
-        <v>20</v>
+      <c r="B22" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+      <c r="D22" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="E22" s="10"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="14" t="s">
-        <v>21</v>
+      <c r="B23" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="D23" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="16" t="s">
-        <v>22</v>
+      <c r="B24" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="D24" s="17" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="14" t="s">
-        <v>23</v>
+      <c r="B25" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="C25" s="14"/>
-      <c r="D25" s="15" t="s">
-        <v>24</v>
+      <c r="D25" s="17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="14" t="s">
-        <v>25</v>
+      <c r="B26" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="D26" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="17" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/utils/localisation_script/excel_to_json/kn/zlatest.xlsx
+++ b/utils/localisation_script/excel_to_json/kn/zlatest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreejithv/TW/projects/ekStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/kn/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nireshkumarr/Documents/ekstep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/kn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1141BA2-B927-7B4E-BAE0-8B0969CE56A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871FA292-5A29-AF40-8233-0A982976CF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="7" r:id="rId1"/>
@@ -56,12 +56,6 @@
   </si>
   <si>
     <t>Malayalam</t>
-  </si>
-  <si>
-    <t>By proceeding ahead you agree to the &lt;a href=\"../terms-and-conditions.html\" target=\"_blank\"&gt; Terms and Conditions&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>ಮುಂದುವರಿಯುವ ಮೂಲಕ ನೀವು &lt;a href=\"../terms-and-conditions.html\" target=\"_blank\"&gt;ನಿಯಮಗಳು ಮತ್ತು ಷರತ್ತುಗಳನ್ನು&lt;/a&gt; ಒಪ್ಪುತ್ತೀರಿ</t>
   </si>
   <si>
     <t>Konkani Roman</t>
@@ -211,9 +205,6 @@
     <t>ಉರ್ದು</t>
   </si>
   <si>
-    <t>Help your language achieve it’s goal of &lt;span id=\"language-hour-goal\"&gt;&lt;/span&gt; images. We know you can do more!</t>
-  </si>
-  <si>
     <t>ಸಲಹೆ</t>
   </si>
   <si>
@@ -232,9 +223,6 @@
     <t>*required</t>
   </si>
   <si>
-    <t>ನಿಮ್ಮ ಭಾಷೆಗೆ &lt;span id=\"language-hour-goal\"&gt;&lt;/span&gt; ಚಿತ್ರಗಳ ಗುರಿಯನ್ನು ತಲುಪಲು ಸಹಾಯ ಮಾಡಿ. ನೀವು ಇನ್ನೂ ಹೆಚ್ಚು ಮಾಡಬಹುದೆಂದು ನಮಗೆ ಗೊತ್ತು!</t>
-  </si>
-  <si>
     <t>One platform, multiple crowdsourcing initiatives</t>
   </si>
   <si>
@@ -242,6 +230,18 @@
   </si>
   <si>
     <t>ಎಲ್ಲ ಭಾಷೆಗಳು</t>
+  </si>
+  <si>
+    <t>By proceeding ahead you agree to the &lt;a href="../terms-and-conditions.html" target="_blank"&gt; Terms and Conditions&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>ಮುಂದುವರಿಯುವ ಮೂಲಕ ನೀವು &lt;a href="../terms-and-conditions.html" target="_blank"&gt;ನಿಯಮಗಳು ಮತ್ತು ಷರತ್ತುಗಳನ್ನು&lt;/a&gt; ಒಪ್ಪುತ್ತೀರಿ</t>
+  </si>
+  <si>
+    <t>Help your language achieve it’s goal of &lt;span id="language-hour-goal"&gt;&lt;/span&gt; images. We know you can do more!</t>
+  </si>
+  <si>
+    <t>ನಿಮ್ಮ ಭಾಷೆಗೆ &lt;span id="language-hour-goal"&gt;&lt;/span&gt; ಚಿತ್ರಗಳ ಗುರಿಯನ್ನು ತಲುಪಲು ಸಹಾಯ ಮಾಡಿ. ನೀವು ಇನ್ನೂ ಹೆಚ್ಚು ಮಾಡಬಹುದೆಂದು ನಮಗೆ ಗೊತ್ತು!</t>
   </si>
 </sst>
 </file>
@@ -552,12 +552,13 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.5" style="1"/>
+    <col min="1" max="1" width="14.5" style="1"/>
+    <col min="2" max="2" width="99.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="51.1640625" style="2" customWidth="1"/>
@@ -661,7 +662,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -693,7 +694,7 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -725,7 +726,7 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -757,7 +758,7 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -821,7 +822,7 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -849,11 +850,11 @@
     <row r="10" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -881,11 +882,11 @@
     <row r="11" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -913,11 +914,11 @@
     <row r="12" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -945,11 +946,11 @@
     <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -977,11 +978,11 @@
     <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1009,11 +1010,11 @@
     <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1041,11 +1042,11 @@
     <row r="16" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1073,11 +1074,11 @@
     <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1105,11 +1106,11 @@
     <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1137,11 +1138,11 @@
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1169,11 +1170,11 @@
     <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1201,11 +1202,11 @@
     <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1233,11 +1234,11 @@
     <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1265,11 +1266,11 @@
     <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1297,11 +1298,11 @@
     <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1333,7 +1334,7 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1361,11 +1362,11 @@
     <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1393,11 +1394,11 @@
     <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1425,11 +1426,11 @@
     <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1461,7 +1462,7 @@
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1489,11 +1490,11 @@
     <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1521,11 +1522,11 @@
     <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1553,11 +1554,11 @@
     <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1585,11 +1586,11 @@
     <row r="33" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1617,11 +1618,11 @@
     <row r="34" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1649,11 +1650,11 @@
     <row r="35" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -1681,11 +1682,11 @@
     <row r="36" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -1717,7 +1718,7 @@
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -1745,11 +1746,11 @@
     <row r="38" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -1805,11 +1806,11 @@
     <row r="40" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
